--- a/automate/זמינות.xlsx
+++ b/automate/זמינות.xlsx
@@ -833,11 +833,11 @@
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col width="14.109375" customWidth="1" min="1" max="1"/>
     <col width="12.6640625" customWidth="1" min="2" max="2"/>
@@ -850,11 +850,11 @@
     <col width="3.109375" customWidth="1" min="10" max="10"/>
     <col width="26.33203125" customWidth="1" min="11" max="11"/>
     <col width="3" customWidth="1" min="12" max="12"/>
-    <col width="24.88671875" customWidth="1" min="13" max="13"/>
-    <col width="2.5546875" customWidth="1" min="14" max="14"/>
+    <col width="24.77734375" customWidth="1" min="13" max="13"/>
+    <col width="2.44140625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1">
+    <row r="1" ht="14.55" customHeight="1">
       <c r="A1" s="15" t="n"/>
       <c r="B1" s="16" t="inlineStr">
         <is>
@@ -940,11 +940,11 @@
         </is>
       </c>
       <c r="I2" s="19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J2" s="5" t="n"/>
     </row>
-    <row r="3" ht="21.6" customHeight="1">
+    <row r="3" ht="21.45" customHeight="1">
       <c r="A3" s="20" t="inlineStr">
         <is>
           <t>אור</t>
@@ -986,11 +986,11 @@
         </is>
       </c>
       <c r="I3" s="21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="5" t="n"/>
     </row>
-    <row r="4" ht="20.4" customHeight="1">
+    <row r="4" ht="20.55" customHeight="1">
       <c r="A4" s="22" t="inlineStr">
         <is>
           <t>עמית</t>
@@ -1158,11 +1158,11 @@
         </is>
       </c>
       <c r="I7" s="29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7" s="5" t="n"/>
     </row>
-    <row r="8" ht="18.6" customHeight="1" thickBot="1">
+    <row r="8" ht="18.45" customHeight="1" thickBot="1">
       <c r="A8" s="30" t="inlineStr">
         <is>
           <t>אוראל</t>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="I8" s="31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="5" t="n"/>
     </row>
@@ -1266,7 +1266,7 @@
       <c r="I10" s="5" t="n"/>
       <c r="J10" s="5" t="n"/>
     </row>
-    <row r="11" ht="32.4" customHeight="1">
+    <row r="11" ht="32.55" customHeight="1">
       <c r="A11" s="14" t="inlineStr">
         <is>
           <t>כמות משמרות בכל יום</t>
